--- a/data/dataThongtinhanghoaThayThe_case3.xlsx
+++ b/data/dataThongtinhanghoaThayThe_case3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Soluong</t>
   </si>
@@ -48,6 +48,33 @@
   </si>
   <si>
     <t>Xoa</t>
+  </si>
+  <si>
+    <t>Điện thoại sam sung galaxy a10</t>
+  </si>
+  <si>
+    <t>Cái</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>Máy giặt Panasonic 210</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>Máy lọc không khí Samsung A12</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -370,14 +397,14 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -413,18 +440,58 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
